--- a/01_Vor_und_Nachbereitung_von_XLSX_Dateien_für_die_Übersetzung/Code_Solutions/files/DPDHL-Chatbot-Export_pre_processed_rows_hidden.xlsx
+++ b/01_Vor_und_Nachbereitung_von_XLSX_Dateien_für_die_Übersetzung/Code_Solutions/files/DPDHL-Chatbot-Export_pre_processed_rows_hidden.xlsx
@@ -11759,13 +11759,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C14A7219-52B5-4A47-AB81-874C961066A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7992715A-ACEF-4195-931E-48AEDB6E277E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CA8C1C5-878E-40B7-B50C-46E43B6C18CF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B3EEB04-E4C6-4722-8D9E-BEBF8463146F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{952D6DCB-5088-47D3-9A5E-1F11633822FF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEFB9EE4-A883-40B3-AD2E-72A5227CADB2}"/>
 </file>